--- a/public/bieumau/phieukiemke.xlsx
+++ b/public/bieumau/phieukiemke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\New Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tttn-2025\public\bieumau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DF4C90-8736-491B-8082-124A771DC263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C119742-88D2-457E-A099-02366C99F228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADC179ED-4A5F-43DC-9290-39C4AF777F72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ADC179ED-4A5F-43DC-9290-39C4AF777F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>PHIẾU KIỂM KÊ HÀNG TỒN KHO</t>
   </si>
@@ -257,33 +257,6 @@
   </si>
   <si>
     <t>BH241170001</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Đơn vị tiền tệ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Curency):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
   <si>
     <r>
@@ -537,48 +510,6 @@
         <family val="1"/>
       </rPr>
       <t>(Amount)</t>
-    </r>
-  </si>
-  <si>
-    <t>Màn hình LCD 27 inch</t>
-  </si>
-  <si>
-    <t>LG2701</t>
-  </si>
-  <si>
-    <t>Cái</t>
-  </si>
-  <si>
-    <t>Bảng mạch điện tử</t>
-  </si>
-  <si>
-    <t>BM001</t>
-  </si>
-  <si>
-    <t>Quạt tản nhiệt</t>
-  </si>
-  <si>
-    <t>FAN890</t>
-  </si>
-  <si>
-    <t>Cảm biến tiệm cận</t>
-  </si>
-  <si>
-    <t>SENSOR789</t>
-  </si>
-  <si>
-    <r>
-      <t>Tổng cộng (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Total)</t>
     </r>
   </si>
   <si>
@@ -601,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,12 +595,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -707,30 +632,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -740,47 +686,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -890,13 +809,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>228665</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>35935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>384102</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>83270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1267,528 +1186,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3F1C79-56CC-42B4-9EAC-8CAF7C02258C}">
-  <dimension ref="B3:Q26"/>
+  <dimension ref="B3:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="10.21875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="2:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="2:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="5" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="3" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F5" s="3" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F6" s="3" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>201723640</v>
       </c>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="2:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="C9" s="8" t="s">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="G10" s="6" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+      <c r="M10" s="17"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="M11" s="17"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:17" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="C13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:17" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="13" t="s">
+      <c r="D13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="E13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="F13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="G13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13" t="s">
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13" t="s">
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+    </row>
+    <row r="14" spans="2:17" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14" t="s">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-    </row>
-    <row r="14" spans="2:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
+      <c r="N14" s="22"/>
+      <c r="O14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13" t="s">
+      <c r="P14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16" t="s">
+      <c r="Q14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="16" t="s">
+    </row>
+    <row r="15" spans="2:17" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="H15" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="16" t="s">
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="18" spans="11:16" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-    </row>
-    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="18">
-        <v>1</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+    </row>
+    <row r="19" spans="11:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="20">
-        <v>20</v>
-      </c>
-      <c r="G16" s="18">
-        <v>150</v>
-      </c>
-      <c r="H16" s="20">
-        <v>3</v>
-      </c>
-      <c r="I16" s="18">
-        <v>148</v>
-      </c>
-      <c r="J16" s="21">
-        <v>2960</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="18">
-        <v>2</v>
-      </c>
-      <c r="N16" s="20">
-        <v>40</v>
-      </c>
-      <c r="O16" s="18">
-        <v>140</v>
-      </c>
-      <c r="P16" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="18">
-        <v>2</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="20">
-        <v>8</v>
-      </c>
-      <c r="G17" s="18">
-        <v>300</v>
-      </c>
-      <c r="H17" s="21">
-        <v>2400</v>
-      </c>
-      <c r="I17" s="18">
-        <v>305</v>
-      </c>
-      <c r="J17" s="21">
-        <v>2440</v>
-      </c>
-      <c r="K17" s="18">
-        <v>5</v>
-      </c>
-      <c r="L17" s="20">
-        <v>40</v>
-      </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18">
-        <v>290</v>
-      </c>
-      <c r="P17" s="18">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="18">
-        <v>3</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="20">
-        <v>10</v>
-      </c>
-      <c r="G18" s="18">
-        <v>50</v>
-      </c>
-      <c r="H18" s="20">
-        <v>500</v>
-      </c>
-      <c r="I18" s="18">
-        <v>50</v>
-      </c>
-      <c r="J18" s="20">
-        <v>500</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18">
-        <v>48</v>
-      </c>
-      <c r="P18" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="18"/>
-    </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18">
-        <v>4</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="20">
-        <v>10</v>
-      </c>
-      <c r="G19" s="18">
-        <v>80</v>
-      </c>
-      <c r="H19" s="20">
-        <v>800</v>
-      </c>
-      <c r="I19" s="18">
-        <v>75</v>
-      </c>
-      <c r="J19" s="20">
-        <v>750</v>
-      </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="18">
-        <v>5</v>
-      </c>
-      <c r="N19" s="20">
-        <v>50</v>
-      </c>
-      <c r="O19" s="18">
-        <v>3</v>
-      </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-    </row>
-    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-    </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="22"/>
-      <c r="C22" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18">
-        <f>SUM(G16:G19)</f>
-        <v>580</v>
-      </c>
-      <c r="H22" s="21">
-        <f>SUM(H16:H19)</f>
-        <v>3703</v>
-      </c>
-      <c r="I22" s="21">
-        <f t="shared" ref="I22:N22" si="0">SUM(I16:I19)</f>
-        <v>578</v>
-      </c>
-      <c r="J22" s="21">
-        <f t="shared" si="0"/>
-        <v>6650</v>
-      </c>
-      <c r="K22" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L22" s="21">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="M22" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N22" s="21">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-    </row>
-    <row r="24" spans="2:17" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="2:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K26" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="E9:L9"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="C10:E10"/>
@@ -1799,12 +1476,12 @@
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="G13:H14"/>
     <mergeCell ref="I13:J14"/>
+    <mergeCell ref="F6:J6"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/bieumau/phieukiemke.xlsx
+++ b/public/bieumau/phieukiemke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tttn-2025\public\bieumau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tttn-2025-main\public\bieumau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C119742-88D2-457E-A099-02366C99F228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4C5071-D85B-4B25-B36E-66A6C3A6196C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ADC179ED-4A5F-43DC-9290-39C4AF777F72}"/>
+    <workbookView xWindow="11400" yWindow="576" windowWidth="11208" windowHeight="11652" xr2:uid="{ADC179ED-4A5F-43DC-9290-39C4AF777F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -668,38 +668,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -721,25 +721,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>376518</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>309282</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>582132</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>129961</xdr:rowOff>
+      <xdr:rowOff>161307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="{1EBB398F-AE6F-4923-BDEC-F5C5F081F189}">
+        <xdr:cNvPr id="4" name="Picture 3" descr="LG이노텍">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8964D89C-75F1-4394-9920-B57232525081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF425E4B-3300-4940-B6BD-47B768770D4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -755,90 +755,6 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="273" t="22177" b="13387"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1595718" y="303530"/>
-          <a:ext cx="1776804" cy="542711"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="45791" dir="3378596" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228665</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>35935</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>384102</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83270</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53F55E3-9EF1-45EE-A7AF-BAE1765FD96C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -846,8 +762,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8869745" y="6147175"/>
-          <a:ext cx="1443217" cy="778855"/>
+          <a:off x="1246909" y="0"/>
+          <a:ext cx="1745914" cy="881743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1188,69 +1104,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3F1C79-56CC-42B4-9EAC-8CAF7C02258C}">
   <dimension ref="B3:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" style="1"/>
-    <col min="15" max="15" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="14" t="s">
+    <row r="3" spans="2:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="15" t="s">
+    <row r="4" spans="2:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="13" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F5" s="13" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F6" s="13" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1267,95 +1183,95 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="2:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="24" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="20"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="M11" s="17"/>
+      <c r="M11" s="20"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:17" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
+    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:17" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="21" t="s">
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="2:17" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19" t="s">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="2:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="22"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1366,12 +1282,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+    <row r="15" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1400,7 +1316,7 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1409,7 +1325,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="11"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="23"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="9"/>
@@ -1418,44 +1334,60 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="18" spans="11:16" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K18" s="15" t="s">
+    <row r="18" spans="11:16" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15" t="s">
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-    </row>
-    <row r="19" spans="11:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="20" t="s">
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+    </row>
+    <row r="19" spans="11:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20" t="s">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-    </row>
-    <row r="20" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K20" s="20" t="s">
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20" t="s">
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="I13:J14"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="N19:P19"/>
     <mergeCell ref="K20:M20"/>
@@ -1466,22 +1398,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="N18:P18"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/bieumau/phieukiemke.xlsx
+++ b/public/bieumau/phieukiemke.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tttn-2025-main\public\bieumau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\tttn-2025\public\bieumau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4C5071-D85B-4B25-B36E-66A6C3A6196C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F034ACB-DC65-438B-AE7D-1DFA7E39E4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="576" windowWidth="11208" windowHeight="11652" xr2:uid="{ADC179ED-4A5F-43DC-9290-39C4AF777F72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADC179ED-4A5F-43DC-9290-39C4AF777F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -671,35 +671,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,6 +764,67 @@
         <a:xfrm>
           <a:off x="1246909" y="0"/>
           <a:ext cx="1745914" cy="881743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>652054</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Mở ảnh">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EEFB57-5CBF-4AE5-8B60-DD4E98F1FFEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8501743" y="5116286"/>
+          <a:ext cx="2078082" cy="952173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1104,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3F1C79-56CC-42B4-9EAC-8CAF7C02258C}">
   <dimension ref="B3:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,48 +1184,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="22" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
@@ -1187,91 +1248,91 @@
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
       <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="20"/>
+      <c r="M10" s="18"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="M11" s="20"/>
+      <c r="M11" s="18"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:17" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16" t="s">
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="2:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15" t="s">
+      <c r="L14" s="20"/>
+      <c r="M14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1283,11 +1344,11 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1335,49 +1396,53 @@
       <c r="Q16" s="9"/>
     </row>
     <row r="18" spans="11:16" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18" t="s">
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
     </row>
     <row r="19" spans="11:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14" t="s">
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="11:16" x14ac:dyDescent="0.3">
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14" t="s">
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="E9:L9"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="C10:E10"/>
@@ -1388,16 +1453,12 @@
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="G13:H14"/>
     <mergeCell ref="I13:J14"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="F5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
